--- a/spc/results/t01/M_0.30_k_0.05/omp_GAUSSIAN_20dB/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.30_k_0.05/omp_GAUSSIAN_20dB/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,606 +860,6 @@
         <v>200.3601217585254</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>198.564493315558</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>196.8060126867023</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>195.0706323360174</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>193.4437726628076</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>191.7974926461541</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>190.2520685163722</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>188.7965390282912</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>187.3083415748215</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>185.9906918379252</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>184.3114340600419</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>182.834798782622</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>181.4302843914346</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>180.1208251448975</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>178.7858943024427</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>177.2187675724158</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>175.7085330349019</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>174.2352428978611</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>172.7895257512259</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>171.4566074048407</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>169.9167687887395</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>168.3178611675384</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>167.0588046046633</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>165.8260912894604</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>164.6103136821201</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>163.4854208508916</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>162.2320484090097</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>160.8991883965678</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>159.7583853692437</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>158.4976994616047</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>157.293769549867</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>156.1047820120733</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>154.9584734912974</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>153.9494091385712</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>152.832229843261</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>151.7595803210444</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>150.6480438165786</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>149.6336018741033</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>148.5065245680285</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>147.5457287662126</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>146.4667481251209</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>145.3653948605366</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>144.4180403126688</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>143.4689391586193</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>142.3863162000283</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>141.5598087425506</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>140.7278267373457</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>139.8717816281533</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>138.9809418311773</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>138.0745301098573</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>137.2038225971845</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>136.3921173325476</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>135.5620817657576</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>134.6507662570762</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>133.9105863256902</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>133.0548816843869</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>132.2969537403431</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>131.5771433035867</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>130.8902144482213</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>130.2362607463596</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>129.5240143752993</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>128.6866977970033</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>128.0596737917268</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>127.3099351807998</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>126.5989093423887</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>125.8976733941932</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>125.1830704077399</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>124.4262977720877</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>123.6811826848892</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>123.0147313980168</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>122.3904293092744</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>121.7451608708855</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>121.0851662877808</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>120.3765943196225</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>119.7411159505849</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>119.083896052278</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>118.4178709089555</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>117.8023827272607</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>117.0358348195312</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>116.3177291467575</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>115.7344263447426</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>115.1119370076015</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>114.447492749077</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>113.8635349165218</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>113.2580042390265</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>112.6329052040613</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>112.0318093300821</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>111.5189278001556</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>110.8671008484446</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>110.3432096740066</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>109.7138966591793</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>109.1565021650323</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>108.6048010478537</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>108.0590638338251</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>107.5419783612106</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>107.0515315470097</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>106.5702039617744</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>106.1011230522625</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>105.6782704356841</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>105.2272305861908</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>104.7409113516687</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>104.2919523009553</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>103.8622112489467</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>103.3850501843606</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>102.8989349692897</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>102.4214455610698</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>101.9763159665518</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>101.4857112965481</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>101.0600997897483</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>100.6300905595315</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>100.1921799595472</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>99.73601346787336</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>99.31681629659742</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>98.92586373807882</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>98.50737617813864</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>98.08722010657405</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>97.64110854674543</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>97.21304274262413</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>96.77944741686058</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>96.35048880798119</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>95.93771453181529</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
